--- a/data/Subset1_WithDialogActs/Ladder problem 4_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 4_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2329,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
